--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640956.065840009</v>
+        <v>645648.7979441538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13167287.16146242</v>
+        <v>11943472.88418847</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3809475.954677906</v>
+        <v>2610015.581521713</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7234019.78015434</v>
+        <v>7747451.935982465</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>94.49632141385227</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>58.67748875058492</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.15366458399251</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>149.1427835161703</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -905,7 +907,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>71.94762989914871</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>276.2660466995658</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1142,13 +1144,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>289.5361878481296</v>
+        <v>123.5300337735305</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429399</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1382,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>343.5930736629653</v>
       </c>
       <c r="X11" t="n">
-        <v>276.2660466995658</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1537,7 +1539,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>72.75321459405927</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>289.5361878481296</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>14.15547637829647</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1853,16 +1855,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>289.5361878481296</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>89.44505231198379</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399251</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100367</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>102.0412378013742</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.7757544134943</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2716,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>8.209635605837729</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>108.3705354224937</v>
       </c>
     </row>
     <row r="35">
@@ -3427,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>207.1414179996206</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>96.44420510686395</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>175.0624134762518</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>139.5684609153465</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>298.6020975999527</v>
+        <v>67.84375449721384</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.45144965817487</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.257703070441</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C2" t="n">
-        <v>908.3569730837407</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D2" t="n">
-        <v>908.3569730837407</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E2" t="n">
-        <v>482.3800332315983</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>419.859310237894</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>1128.40047157275</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L2" t="n">
-        <v>1128.40047157275</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1698.427812387813</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="N2" t="n">
-        <v>1698.427812387813</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O2" t="n">
-        <v>1698.427812387813</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P2" t="n">
-        <v>2406.707091545741</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2862.792571049924</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2767.341741338962</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2508.986831935375</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2151.497417061624</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>1755.106067361971</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X2" t="n">
-        <v>1755.106067361971</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1755.106067361971</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>204.6857164410849</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25585142099849</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L3" t="n">
-        <v>448.8611593317958</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M3" t="n">
-        <v>448.8611593317958</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>448.8611593317958</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O3" t="n">
-        <v>1157.402320666652</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328.3735302834891</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="C4" t="n">
-        <v>156.4009671624051</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="D4" t="n">
-        <v>57.25585142099849</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E4" t="n">
-        <v>57.25585142099849</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F4" t="n">
-        <v>57.25585142099849</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G4" t="n">
-        <v>57.25585142099849</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>57.25585142099849</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2237.668878834127</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2067.533831353262</v>
+        <v>2027.223362870589</v>
       </c>
       <c r="T4" t="n">
-        <v>1824.194483579161</v>
+        <v>1783.88401509649</v>
       </c>
       <c r="U4" t="n">
-        <v>1544.010035079466</v>
+        <v>1503.699566596794</v>
       </c>
       <c r="V4" t="n">
-        <v>1262.298567687495</v>
+        <v>1221.988099204823</v>
       </c>
       <c r="W4" t="n">
-        <v>987.4461638600076</v>
+        <v>947.1356953773358</v>
       </c>
       <c r="X4" t="n">
-        <v>744.8822673058127</v>
+        <v>704.5717988231409</v>
       </c>
       <c r="Y4" t="n">
-        <v>518.5394989955547</v>
+        <v>478.2290305128828</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1758.55032388544</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.64959389874</v>
+        <v>966.4421593518935</v>
       </c>
       <c r="D5" t="n">
-        <v>908.3569730837407</v>
+        <v>543.1495385368937</v>
       </c>
       <c r="E5" t="n">
-        <v>482.3800332315983</v>
+        <v>117.1725986847513</v>
       </c>
       <c r="F5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>765.7970127558548</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L5" t="n">
-        <v>1445.710248380212</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>2154.251409715068</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>2154.251409715068</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O5" t="n">
-        <v>2862.792571049924</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P5" t="n">
-        <v>2862.792571049924</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q5" t="n">
-        <v>2862.792571049924</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X5" t="n">
-        <v>2583.73595822208</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y5" t="n">
-        <v>2178.398688176971</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.6857164410849</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>693.2568438038727</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>693.2568438038727</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N6" t="n">
-        <v>693.2568438038727</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>693.2568438038727</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
-        <v>1401.798005138729</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1140.436973945235</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>968.4644108241513</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>805.147637950922</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>638.9394321037755</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>467.077657878336</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>300.8206881725681</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0244196807225</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2237.668878834127</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2237.668878834127</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2237.668878834127</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1957.484430334431</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1957.484430334431</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1799.509607521754</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1556.945710967559</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1330.602942657301</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1625.886937881032</v>
+        <v>1786.025678078392</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.986207894332</v>
+        <v>1359.124948091692</v>
       </c>
       <c r="D8" t="n">
-        <v>775.6935870793325</v>
+        <v>935.8323272766927</v>
       </c>
       <c r="E8" t="n">
-        <v>349.71664722719</v>
+        <v>509.8553874245503</v>
       </c>
       <c r="F8" t="n">
-        <v>57.25585142099849</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="G8" t="n">
-        <v>57.25585142099849</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J8" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230256</v>
       </c>
       <c r="K8" t="n">
-        <v>737.1690870453554</v>
+        <v>449.8126558230256</v>
       </c>
       <c r="L8" t="n">
-        <v>1445.710248380212</v>
+        <v>1379.437703442302</v>
       </c>
       <c r="M8" t="n">
-        <v>2154.251409715068</v>
+        <v>2383.723804861361</v>
       </c>
       <c r="N8" t="n">
-        <v>2862.792571049924</v>
+        <v>3359.974863348062</v>
       </c>
       <c r="O8" t="n">
-        <v>2862.792571049924</v>
+        <v>4205.119513498874</v>
       </c>
       <c r="P8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="Q8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="R8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="S8" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.092556179642</v>
       </c>
       <c r="T8" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224275</v>
       </c>
       <c r="U8" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820688</v>
       </c>
       <c r="V8" t="n">
-        <v>2862.792571049924</v>
+        <v>3419.322660946938</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.792571049924</v>
+        <v>3022.931311247285</v>
       </c>
       <c r="X8" t="n">
-        <v>2451.072572217672</v>
+        <v>2611.211312415032</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.735302172562</v>
+        <v>2205.874042369922</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C9" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D9" t="n">
-        <v>403.0334804852435</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E9" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F9" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438205</v>
       </c>
       <c r="H9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J9" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K9" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="L9" t="n">
-        <v>765.7970127558548</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="M9" t="n">
-        <v>765.7970127558548</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="N9" t="n">
-        <v>1157.402320666652</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="O9" t="n">
-        <v>1865.943482001508</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P9" t="n">
-        <v>1865.943482001508</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y9" t="n">
-        <v>753.3063518725164</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>281.3349169706623</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>109.3623538495783</v>
+        <v>998.4177564092829</v>
       </c>
       <c r="D10" t="n">
-        <v>57.25585142099849</v>
+        <v>835.1009835360536</v>
       </c>
       <c r="E10" t="n">
-        <v>57.25585142099849</v>
+        <v>668.8927776889071</v>
       </c>
       <c r="F10" t="n">
-        <v>57.25585142099849</v>
+        <v>497.0310034634676</v>
       </c>
       <c r="G10" t="n">
-        <v>57.25585142099849</v>
+        <v>330.7740337576997</v>
       </c>
       <c r="H10" t="n">
-        <v>57.25585142099849</v>
+        <v>186.9777652658541</v>
       </c>
       <c r="I10" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J10" t="n">
-        <v>114.7471796451565</v>
+        <v>144.7005252302881</v>
       </c>
       <c r="K10" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361253</v>
       </c>
       <c r="L10" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2190.6302655213</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2020.495218040435</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>1777.155870266335</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>1496.971421766639</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V10" t="n">
-        <v>1215.259954374668</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W10" t="n">
-        <v>940.4075505471808</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>697.8436539929859</v>
+        <v>1586.899056552691</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.5008856827279</v>
+        <v>1360.556288242433</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1758.55032388544</v>
+        <v>2192.842731881123</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.64959389874</v>
+        <v>1765.942001894423</v>
       </c>
       <c r="D11" t="n">
-        <v>908.3569730837407</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E11" t="n">
-        <v>482.3800332315983</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F11" t="n">
-        <v>57.25585142099849</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="H11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="K11" t="n">
-        <v>57.25585142099849</v>
+        <v>605.1529926306538</v>
       </c>
       <c r="L11" t="n">
-        <v>765.7970127558548</v>
+        <v>1534.77804024993</v>
       </c>
       <c r="M11" t="n">
-        <v>1474.338174090711</v>
+        <v>2539.064141668989</v>
       </c>
       <c r="N11" t="n">
-        <v>2182.879335425568</v>
+        <v>3515.31520015569</v>
       </c>
       <c r="O11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="P11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="Q11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="R11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="S11" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.092556179642</v>
       </c>
       <c r="T11" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224275</v>
       </c>
       <c r="U11" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820688</v>
       </c>
       <c r="V11" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820688</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.792571049924</v>
+        <v>3429.748365050016</v>
       </c>
       <c r="X11" t="n">
-        <v>2583.73595822208</v>
+        <v>3018.028366217763</v>
       </c>
       <c r="Y11" t="n">
-        <v>2178.398688176971</v>
+        <v>2612.691096172653</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C12" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D12" t="n">
-        <v>403.0334804852435</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E12" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F12" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438205</v>
       </c>
       <c r="H12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="K12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="L12" t="n">
-        <v>448.8611593317958</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.402320666652</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N12" t="n">
-        <v>1157.402320666652</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.402320666652</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y12" t="n">
-        <v>753.3063518725164</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>968.5751997197957</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C13" t="n">
-        <v>796.6026365987117</v>
+        <v>998.4177564092829</v>
       </c>
       <c r="D13" t="n">
-        <v>633.2858637254824</v>
+        <v>835.1009835360536</v>
       </c>
       <c r="E13" t="n">
-        <v>467.077657878336</v>
+        <v>668.8927776889071</v>
       </c>
       <c r="F13" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634676</v>
       </c>
       <c r="G13" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576997</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0244196807225</v>
+        <v>186.9777652658541</v>
       </c>
       <c r="I13" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J13" t="n">
-        <v>114.7471796451565</v>
+        <v>144.7005252302881</v>
       </c>
       <c r="K13" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361253</v>
       </c>
       <c r="L13" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2237.668878834127</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S13" t="n">
-        <v>2067.533831353262</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="T13" t="n">
-        <v>2067.533831353262</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="U13" t="n">
-        <v>1994.045735803707</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="V13" t="n">
-        <v>1712.334268411736</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.481864584249</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X13" t="n">
-        <v>1194.917968030054</v>
+        <v>1586.899056552691</v>
       </c>
       <c r="Y13" t="n">
-        <v>968.5751997197957</v>
+        <v>1360.556288242433</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1625.886937881032</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C14" t="n">
-        <v>1198.986207894332</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D14" t="n">
-        <v>775.6935870793325</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E14" t="n">
-        <v>349.71664722719</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F14" t="n">
-        <v>57.25585142099849</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G14" t="n">
-        <v>57.25585142099849</v>
+        <v>419.974446788624</v>
       </c>
       <c r="H14" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="K14" t="n">
-        <v>281.3454897181009</v>
+        <v>605.1529926306538</v>
       </c>
       <c r="L14" t="n">
-        <v>989.8866510529572</v>
+        <v>1534.77804024993</v>
       </c>
       <c r="M14" t="n">
-        <v>989.8866510529572</v>
+        <v>2539.064141668989</v>
       </c>
       <c r="N14" t="n">
-        <v>989.8866510529572</v>
+        <v>3515.31520015569</v>
       </c>
       <c r="O14" t="n">
-        <v>1698.427812387813</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="P14" t="n">
-        <v>2406.707091545741</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="Q14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="R14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="S14" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.092556179642</v>
       </c>
       <c r="T14" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224275</v>
       </c>
       <c r="U14" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820688</v>
       </c>
       <c r="V14" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820688</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.792571049924</v>
+        <v>3762.51361483251</v>
       </c>
       <c r="X14" t="n">
-        <v>2451.072572217672</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2045.735302172562</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C15" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0334804852435</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E15" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F15" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438205</v>
       </c>
       <c r="H15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="K15" t="n">
-        <v>647.7407779893381</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="L15" t="n">
-        <v>1356.281939324194</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="M15" t="n">
-        <v>1401.798005138729</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.798005138729</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="O15" t="n">
-        <v>1401.798005138729</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P15" t="n">
-        <v>1401.798005138729</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.3063518725164</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1140.436973945235</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C16" t="n">
-        <v>968.4644108241513</v>
+        <v>998.4177564092829</v>
       </c>
       <c r="D16" t="n">
-        <v>805.147637950922</v>
+        <v>835.1009835360536</v>
       </c>
       <c r="E16" t="n">
-        <v>638.9394321037755</v>
+        <v>668.8927776889071</v>
       </c>
       <c r="F16" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634676</v>
       </c>
       <c r="G16" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576997</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0244196807225</v>
+        <v>186.9777652658541</v>
       </c>
       <c r="I16" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7471796451565</v>
+        <v>144.7005252302881</v>
       </c>
       <c r="K16" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361253</v>
       </c>
       <c r="L16" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V16" t="n">
-        <v>2074.362011349241</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.509607521754</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X16" t="n">
-        <v>1556.945710967559</v>
+        <v>1586.899056552691</v>
       </c>
       <c r="Y16" t="n">
-        <v>1330.602942657301</v>
+        <v>1360.556288242433</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1625.886937881032</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1198.986207894332</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>775.6935870793325</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>349.71664722719</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>57.25585142099849</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>57.25585142099849</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
-        <v>57.25585142099849</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>57.25585142099849</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>57.25585142099849</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>765.7970127558548</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1474.338174090711</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2182.879335425568</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>2862.792571049924</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2862.792571049924</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2862.792571049924</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2862.792571049924</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2862.792571049924</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2862.792571049924</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2451.072572217672</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2045.735302172562</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>624.3793424524537</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>506.8734389699584</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>403.0334804852435</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>298.3315467581807</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>204.6857164410849</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>110.6319446586889</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>647.7407779893381</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>647.7407779893381</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1157.402320666652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1157.402320666652</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1865.943482001508</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1784.619234562763</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1642.739298860441</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1457.971102780078</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1252.997963919344</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1056.476586752561</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>892.999240519224</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.3063518725164</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>328.3735302834891</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>156.4009671624051</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>156.4009671624051</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>156.4009671624051</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>57.25585142099849</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>57.25585142099849</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>57.25585142099849</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>114.7471796451565</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>341.2747808509937</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>695.9641021454145</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1087.149897115665</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1464.641407991701</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1820.069536671464</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2110.668748593365</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2237.668878834127</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2237.668878834127</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2067.533831353262</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1824.194483579161</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U19" t="n">
-        <v>1544.010035079466</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V19" t="n">
-        <v>1262.298567687495</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W19" t="n">
-        <v>987.4461638600076</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X19" t="n">
-        <v>744.8822673058127</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="Y19" t="n">
-        <v>518.5394989955547</v>
+        <v>1275.832373618938</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5753,28 +5755,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>4951.828802806541</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6069,22 +6071,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N24" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O24" t="n">
-        <v>991.7839914173002</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P24" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1844.556469506584</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1844.556469506584</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1844.556469506584</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,34 +6229,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6294,7 +6296,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H27" t="n">
         <v>102.3027134058285</v>
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.801708427964</v>
+        <v>778.6022263052664</v>
       </c>
       <c r="C28" t="n">
-        <v>2986.82914530688</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878299</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>2274.423179600939</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,19 +6451,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6470,28 +6472,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6537,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>700.2342829360799</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8002552472883</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2099.621208542961</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1819.436760043265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.725292651294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.872888823807</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.308992269612</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.966223959354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,19 +6688,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
@@ -6707,28 +6709,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6786,16 +6788,16 @@
         <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1655.299238527233</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7020,19 +7022,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3278.556980224822</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>3106.584417103738</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>3106.584417103738</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>3106.584417103738</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5017.717281294595</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4774.377933520494</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4494.193485020799</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>4212.482017628828</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W37" t="n">
-        <v>3937.629613801341</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X37" t="n">
-        <v>3695.065717247146</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y37" t="n">
-        <v>3468.722948936888</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>371.5828766281004</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>371.5828766281004</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2369.673452564206</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>1942.772722577506</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1519.480101762506</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1093.503161910364</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>668.378980099764</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>264.0399176892126</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>449.8126558230256</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9061722227241</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="M41" t="n">
-        <v>2398.817321261059</v>
+        <v>2169.607065217583</v>
       </c>
       <c r="N41" t="n">
-        <v>3375.06837974776</v>
+        <v>3145.858123704284</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3145.858123704284</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>3854.137402862212</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4310.222882366395</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4002.970435432751</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3606.579085733099</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3194.859086900846</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2789.521816855736</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>3118.895710757447</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>3001.389807274952</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>2897.549848790237</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>2792.847915063175</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>2699.202084746079</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>2605.148312963683</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>2551.772219725993</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>2551.772219725993</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>2823.469709005584</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>3413.954635573923</v>
       </c>
       <c r="L42" t="n">
-        <v>374.0002026854196</v>
+        <v>3413.954635573923</v>
       </c>
       <c r="M42" t="n">
-        <v>374.0002026854196</v>
+        <v>3413.954635573923</v>
       </c>
       <c r="N42" t="n">
-        <v>939.4897558901635</v>
+        <v>3413.954635573923</v>
       </c>
       <c r="O42" t="n">
-        <v>1828.971033901635</v>
+        <v>3413.954635573923</v>
       </c>
       <c r="P42" t="n">
-        <v>1828.971033901635</v>
+        <v>3814.29506335902</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>4278.440540221799</v>
       </c>
       <c r="R42" t="n">
-        <v>1910.990343986338</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="S42" t="n">
-        <v>1829.666096547593</v>
+        <v>4279.135602867756</v>
       </c>
       <c r="T42" t="n">
-        <v>1687.786160845271</v>
+        <v>4137.255667165435</v>
       </c>
       <c r="U42" t="n">
-        <v>1503.017964764908</v>
+        <v>3952.487471085071</v>
       </c>
       <c r="V42" t="n">
-        <v>1298.044825904174</v>
+        <v>3747.514332224338</v>
       </c>
       <c r="W42" t="n">
-        <v>1101.523448737391</v>
+        <v>3550.992955057555</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>3387.515608824218</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>3247.82272017751</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.1370507523521</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C43" t="n">
-        <v>274.1644876312681</v>
+        <v>998.4177564092829</v>
       </c>
       <c r="D43" t="n">
-        <v>274.1644876312681</v>
+        <v>835.1009835360536</v>
       </c>
       <c r="E43" t="n">
-        <v>274.1644876312681</v>
+        <v>668.8927776889071</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058285</v>
+        <v>497.0310034634676</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>330.7740337576997</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>186.9777652658541</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>144.7005252302881</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>371.2281264361253</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2185.297351822124</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T43" t="n">
-        <v>1941.958004048024</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U43" t="n">
-        <v>1661.773555548329</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V43" t="n">
-        <v>1380.062088156358</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.20968432887</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="X43" t="n">
-        <v>862.6457877746757</v>
+        <v>1501.534531591268</v>
       </c>
       <c r="Y43" t="n">
-        <v>636.3030194644177</v>
+        <v>1360.556288242433</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1735.988656309292</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C44" t="n">
-        <v>1735.988656309292</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D44" t="n">
-        <v>1312.696035494292</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E44" t="n">
-        <v>886.7190956421497</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F44" t="n">
-        <v>461.5949138315499</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G44" t="n">
-        <v>57.25585142099849</v>
+        <v>419.974446788624</v>
       </c>
       <c r="H44" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J44" t="n">
-        <v>57.25585142099849</v>
+        <v>449.8126558230256</v>
       </c>
       <c r="K44" t="n">
-        <v>57.25585142099849</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>765.7970127558548</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>1474.338174090711</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N44" t="n">
-        <v>2182.879335425568</v>
+        <v>2233.394106611676</v>
       </c>
       <c r="O44" t="n">
-        <v>2862.792571049924</v>
+        <v>3078.538756762488</v>
       </c>
       <c r="P44" t="n">
-        <v>2862.792571049924</v>
+        <v>3786.818035920416</v>
       </c>
       <c r="Q44" t="n">
-        <v>2862.792571049924</v>
+        <v>4242.903515424599</v>
       </c>
       <c r="R44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.459850306502</v>
       </c>
       <c r="S44" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.092556179642</v>
       </c>
       <c r="T44" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224275</v>
       </c>
       <c r="U44" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820688</v>
       </c>
       <c r="V44" t="n">
-        <v>2862.792571049924</v>
+        <v>3419.322660946938</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.792571049924</v>
+        <v>3419.322660946938</v>
       </c>
       <c r="X44" t="n">
-        <v>2561.174290645932</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2155.837020600822</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375853</v>
       </c>
       <c r="C45" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550901</v>
       </c>
       <c r="D45" t="n">
-        <v>403.0334804852435</v>
+        <v>432.9868260703751</v>
       </c>
       <c r="E45" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433123</v>
       </c>
       <c r="F45" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438205</v>
       </c>
       <c r="H45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J45" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K45" t="n">
-        <v>57.25585142099849</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="L45" t="n">
-        <v>57.25585142099849</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="M45" t="n">
-        <v>765.7970127558548</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="N45" t="n">
-        <v>1474.338174090711</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="O45" t="n">
-        <v>1865.943482001508</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.943482001508</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043556</v>
       </c>
       <c r="Y45" t="n">
-        <v>753.3063518725164</v>
+        <v>783.259697457648</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>977.120201072006</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C46" t="n">
-        <v>805.147637950922</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="D46" t="n">
-        <v>805.147637950922</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="E46" t="n">
-        <v>638.9394321037755</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>467.077657878336</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="G46" t="n">
-        <v>300.8206881725681</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="I46" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613004</v>
       </c>
       <c r="J46" t="n">
-        <v>114.7471796451565</v>
+        <v>144.7005252302881</v>
       </c>
       <c r="K46" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361253</v>
       </c>
       <c r="L46" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2154.384586250112</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T46" t="n">
-        <v>1911.045238476011</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U46" t="n">
-        <v>1911.045238476011</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V46" t="n">
-        <v>1911.045238476011</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W46" t="n">
-        <v>1636.192834648524</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X46" t="n">
-        <v>1393.62893809433</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y46" t="n">
-        <v>1167.286169784072</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>751.4627435572904</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>613.2164556419198</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>418.076003795843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
-        <v>738.8700324847033</v>
+        <v>181.4456529820158</v>
       </c>
       <c r="P3" t="n">
-        <v>737.4689839673098</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>751.4627435572904</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>725.0930885178318</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
-        <v>753.1294056619129</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O5" t="n">
-        <v>753.0891021185053</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>664.9403315454157</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P6" t="n">
-        <v>737.4689839673098</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>722.5456468800182</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>194.4847929290473</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>738.2132294767107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>383.3462223301476</v>
       </c>
       <c r="N9" t="n">
-        <v>416.9039452951551</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,19 +8692,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>558.940151930692</v>
       </c>
       <c r="L11" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>418.076003795843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7949232748091</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P12" t="n">
-        <v>737.4689839673098</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>262.1177707918825</v>
+        <v>558.940151930692</v>
       </c>
       <c r="L14" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>738.2132294767107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>69.07260456741345</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>753.1294056619129</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>537.9064195803219</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>58.21512474482097</v>
       </c>
       <c r="O18" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9401,10 +9403,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9729,13 +9731,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9893,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10118,10 +10120,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>56.96224792398087</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10133,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>347.0350695816909</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10203,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10355,16 +10357,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>924.1790155406098</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536363</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10434,7 +10436,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,10 +10445,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>281.0208821870649</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10668,22 +10670,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>657.2064368952725</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,10 +10910,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>1105.024507443985</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,10 +11062,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11072,7 +11074,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>500.1648957193109</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>85.77706195551082</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>592.5445971072223</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948251</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>753.1294056619129</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>752.9777655969272</v>
+        <v>177.1261836363399</v>
       </c>
       <c r="O44" t="n">
-        <v>724.1720054412328</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7949232748091</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>737.0411709760227</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>418.7328068038355</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22550,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22598,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>124.2199938319609</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>342.6064085940736</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>63.52994056050449</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22720,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>19.29091348988624</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22793,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>348.925310093345</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22847,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>131.3367521443644</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23030,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>131.3367521443641</v>
+        <v>297.3429062189633</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23182,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.098167740203</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>48.83436253969126</v>
       </c>
       <c r="X11" t="n">
-        <v>131.3367521443644</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>204.6293894206395</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>131.3367521443641</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>378.2719598243601</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>131.3367521443641</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>98.81925671296121</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919267</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.64236734312284</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>22.13019988286467</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.6963186905213</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24886,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>16.93792262753476</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.10191868181103</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>119.8272812644537</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>84.51087971180883</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>109.0007012439775</v>
+        <v>339.7590443467163</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>85.98224734788162</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>515100.0815574186</v>
+        <v>449702.5758019649</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>515100.0815574186</v>
+        <v>449702.5758019649</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>515100.0815574187</v>
+        <v>668645.4224553339</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>515100.0815574186</v>
+        <v>668645.4224553339</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>515100.0815574187</v>
+        <v>668645.4224553339</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515100.0815574187</v>
+        <v>746017.0507548571</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746017.0507548571</v>
+        <v>746017.0507548572</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>746017.0507548572</v>
+        <v>746017.0507548571</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746017.0507548572</v>
+        <v>746017.0507548571</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746017.0507548571</v>
+        <v>746017.0507548572</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746017.0507548571</v>
+        <v>746017.0507548572</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746017.0507548571</v>
+        <v>668645.4224553338</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>515100.0815574187</v>
+        <v>668645.4224553339</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>213447.6467511699</v>
+        <v>186353.4106584144</v>
       </c>
       <c r="C2" t="n">
-        <v>213447.6467511698</v>
+        <v>186353.4106584143</v>
       </c>
       <c r="D2" t="n">
-        <v>213447.6467511698</v>
+        <v>277061.5976071444</v>
       </c>
       <c r="E2" t="n">
-        <v>213447.6467511698</v>
+        <v>277061.5976071444</v>
       </c>
       <c r="F2" t="n">
-        <v>213447.6467511698</v>
+        <v>277061.5976071444</v>
       </c>
       <c r="G2" t="n">
-        <v>213447.6467511698</v>
+        <v>309116.7217255958</v>
       </c>
       <c r="H2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="I2" t="n">
-        <v>309116.7217255961</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="J2" t="n">
-        <v>309116.7217255961</v>
+        <v>309116.721725596</v>
       </c>
       <c r="K2" t="n">
+        <v>309116.7217255959</v>
+      </c>
+      <c r="L2" t="n">
         <v>309116.721725596</v>
       </c>
-      <c r="L2" t="n">
-        <v>309116.7217255961</v>
-      </c>
       <c r="M2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.721725596</v>
       </c>
       <c r="O2" t="n">
-        <v>309116.7217255961</v>
+        <v>277061.5976071443</v>
       </c>
       <c r="P2" t="n">
-        <v>213447.6467511698</v>
+        <v>277061.5976071444</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239846.908696991</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.3652370802</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>51711.33053014202</v>
       </c>
       <c r="H3" t="n">
-        <v>151925.6098158127</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187258.1248649466</v>
+        <v>145533.6699348164</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442418</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49929.97196558861</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="C4" t="n">
-        <v>49929.97196558862</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="D4" t="n">
-        <v>49929.97196558861</v>
+        <v>64858.25346428686</v>
       </c>
       <c r="E4" t="n">
-        <v>49929.97196558861</v>
+        <v>64858.25346428687</v>
       </c>
       <c r="F4" t="n">
-        <v>49929.97196558862</v>
+        <v>64858.25346428687</v>
       </c>
       <c r="G4" t="n">
-        <v>49929.97196558861</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="H4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72380.6272498637</v>
+      </c>
+      <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="I4" t="n">
-        <v>72380.62724986373</v>
-      </c>
-      <c r="J4" t="n">
-        <v>72380.62724986373</v>
-      </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986371</v>
+        <v>64858.25346428687</v>
       </c>
       <c r="P4" t="n">
-        <v>49929.97196558861</v>
+        <v>64858.25346428685</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>77142.04707995884</v>
+        <v>99906.58972465881</v>
       </c>
       <c r="E5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465882</v>
       </c>
       <c r="F5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465882</v>
       </c>
       <c r="G5" t="n">
-        <v>43514.44707995885</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>66278.98972465882</v>
       </c>
       <c r="P5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465882</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153471.2809913685</v>
+        <v>-111069.3432276246</v>
       </c>
       <c r="C6" t="n">
-        <v>86375.62770562238</v>
+        <v>75335.39018711248</v>
       </c>
       <c r="D6" t="n">
-        <v>86375.62770562235</v>
+        <v>-53544.61081888143</v>
       </c>
       <c r="E6" t="n">
-        <v>120003.2277056224</v>
+        <v>145924.3544181988</v>
       </c>
       <c r="F6" t="n">
-        <v>120003.2277056224</v>
+        <v>145924.3544181987</v>
       </c>
       <c r="G6" t="n">
-        <v>120003.2277056223</v>
+        <v>107274.7017571605</v>
       </c>
       <c r="H6" t="n">
-        <v>7060.422471489874</v>
+        <v>158986.0322873026</v>
       </c>
       <c r="I6" t="n">
-        <v>158986.0322873027</v>
+        <v>158986.0322873026</v>
       </c>
       <c r="J6" t="n">
-        <v>-28272.09257764394</v>
+        <v>13452.36235248623</v>
       </c>
       <c r="K6" t="n">
         <v>158986.0322873026</v>
       </c>
       <c r="L6" t="n">
-        <v>158986.0322873027</v>
+        <v>23863.99974306079</v>
       </c>
       <c r="M6" t="n">
-        <v>158986.0322873025</v>
+        <v>158986.0322873026</v>
       </c>
       <c r="N6" t="n">
-        <v>158986.0322873025</v>
+        <v>158986.0322873026</v>
       </c>
       <c r="O6" t="n">
-        <v>158986.0322873027</v>
+        <v>145924.3544181986</v>
       </c>
       <c r="P6" t="n">
-        <v>120003.2277056223</v>
+        <v>145924.3544181987</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
-        <v>715.6981427624811</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26811,7 +26813,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610314</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>188.6689549962312</v>
       </c>
       <c r="H4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.698142762481</v>
+        <v>556.2278131155938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610312</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610314</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>188.6689549962312</v>
       </c>
       <c r="P4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>575.785192742488</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
-        <v>715.6981427624811</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="P3" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>686.7810460852089</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>642.4252448311861</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P6" t="n">
-        <v>715.6981427624811</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>686.7810460852089</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>156.909431118816</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="N9" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>523.1755511358826</v>
       </c>
       <c r="L11" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.6981427624811</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P12" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>226.3531699970732</v>
+        <v>523.1755511358826</v>
       </c>
       <c r="L14" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>45.97582405508547</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>715.6981427624811</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>514.8096390679939</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="O18" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q24" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36613,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,10 +36840,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>19.53098502454905</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36853,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>324.5199828674614</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>886.8993927061638</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>587.902602543405</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37154,7 +37156,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>258.2738438980864</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>1083.681479230444</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37792,7 +37794,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>462.7739363632869</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>50.74441206071435</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>571.2015688936807</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>404.3842704899964</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>715.6981427624811</v>
+        <v>139.8465608018938</v>
       </c>
       <c r="O44" t="n">
-        <v>686.7810460852088</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645648.7979441538</v>
+        <v>643495.5641398194</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11943472.88418847</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2610015.581521713</v>
+        <v>2610015.581521716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7747451.935982465</v>
+        <v>7747451.935982463</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>84.40674218853356</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.67748875058492</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>96.4442051068646</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>149.1427835161703</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -907,7 +907,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>71.94762989914871</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>336.4558456696458</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1135,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>44.35976286247114</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1144,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>123.5300337735305</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.50542580799409</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>77.99311317322272</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>343.5930736629653</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>14.15547637829647</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>351.8441158514555</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.44505231198379</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>102.0412378013742</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>8.209635605837729</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.3705354224937</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>207.1414179996206</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>175.0624134762518</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>234.0872394605576</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.5684609153465</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>219.8296498364564</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>67.84375449721384</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>96.44420510686372</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.792697513689</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="C2" t="n">
-        <v>1318.891967526989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D2" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E2" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819457</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>2107.354917580473</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2035.284622791544</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2035.284622791544</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1677.795207917793</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>1281.40385821814</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462376</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y2" t="n">
-        <v>2165.64106180522</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.0630618008172</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>288.0630618008172</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>288.0630618008172</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2027.223362870589</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1783.88401509649</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1503.699566596794</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1221.988099204823</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>947.1356953773358</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>704.5717988231409</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.2290305128828</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1393.342889338593</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C5" t="n">
-        <v>966.4421593518935</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D5" t="n">
-        <v>543.1495385368937</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E5" t="n">
-        <v>117.1725986847513</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336855</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596035</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630123</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="Y5" t="n">
-        <v>1813.191253630123</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336855</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.025678078392</v>
+        <v>2143.515092952141</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.124948091692</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D8" t="n">
-        <v>935.8323272766927</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E8" t="n">
-        <v>509.8553874245503</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F8" t="n">
-        <v>385.0775755320952</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G8" t="n">
-        <v>385.0775755320952</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>87.20919700613004</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>449.8126558230256</v>
+        <v>429.1192997486523</v>
       </c>
       <c r="K8" t="n">
-        <v>449.8126558230256</v>
+        <v>1144.627607724151</v>
       </c>
       <c r="L8" t="n">
-        <v>1379.437703442302</v>
+        <v>2074.252655343428</v>
       </c>
       <c r="M8" t="n">
-        <v>2383.723804861361</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="N8" t="n">
-        <v>3359.974863348062</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="O8" t="n">
-        <v>4205.119513498874</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P8" t="n">
-        <v>4360.459850306502</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q8" t="n">
-        <v>4360.459850306502</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R8" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>4256.092556179642</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
-        <v>4035.166985224275</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>3776.812075820688</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V8" t="n">
-        <v>3419.322660946938</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="W8" t="n">
-        <v>3022.931311247285</v>
+        <v>3380.420726121033</v>
       </c>
       <c r="X8" t="n">
-        <v>2611.211312415032</v>
+        <v>2968.70072728878</v>
       </c>
       <c r="Y8" t="n">
-        <v>2205.874042369922</v>
+        <v>2563.363457243671</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
         <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>140.5852902438205</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20919700613004</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J9" t="n">
-        <v>358.9066862857211</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9066862857211</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9066862857211</v>
+        <v>1203.152137330539</v>
       </c>
       <c r="M9" t="n">
-        <v>715.5536336853625</v>
+        <v>1203.152137330539</v>
       </c>
       <c r="N9" t="n">
-        <v>715.5536336853625</v>
+        <v>1203.152137330539</v>
       </c>
       <c r="O9" t="n">
-        <v>715.5536336853625</v>
+        <v>1203.152137330539</v>
       </c>
       <c r="P9" t="n">
-        <v>1431.75135072386</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="Q9" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R9" t="n">
         <v>1895.89682758664</v>
@@ -4925,10 +4925,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1170.390319530367</v>
+        <v>591.5361467844839</v>
       </c>
       <c r="C10" t="n">
-        <v>998.4177564092829</v>
+        <v>591.5361467844839</v>
       </c>
       <c r="D10" t="n">
-        <v>835.1009835360536</v>
+        <v>591.5361467844839</v>
       </c>
       <c r="E10" t="n">
-        <v>668.8927776889071</v>
+        <v>425.3279409373374</v>
       </c>
       <c r="F10" t="n">
-        <v>497.0310034634676</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="G10" t="n">
-        <v>330.7740337576997</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H10" t="n">
-        <v>186.9777652658541</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I10" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
-        <v>144.7005252302881</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>371.2281264361253</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
         <v>725.917447730546</v>
@@ -4989,25 +4989,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2267.622224419258</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T10" t="n">
-        <v>2267.622224419258</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.622224419258</v>
+        <v>1807.172651580461</v>
       </c>
       <c r="V10" t="n">
-        <v>2104.315356934372</v>
+        <v>1525.461184188489</v>
       </c>
       <c r="W10" t="n">
-        <v>1829.462953106885</v>
+        <v>1250.608780361002</v>
       </c>
       <c r="X10" t="n">
-        <v>1586.899056552691</v>
+        <v>1008.044883806808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1360.556288242433</v>
+        <v>781.7021154965496</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2192.842731881123</v>
+        <v>2143.515092952141</v>
       </c>
       <c r="C11" t="n">
-        <v>1765.942001894423</v>
+        <v>1716.614362965441</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.649381079424</v>
+        <v>1293.321742150441</v>
       </c>
       <c r="E11" t="n">
-        <v>916.6724412272812</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F11" t="n">
-        <v>491.5482594166814</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G11" t="n">
-        <v>87.20919700613004</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H11" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I11" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>87.20919700613004</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>605.1529926306538</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L11" t="n">
-        <v>1534.77804024993</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M11" t="n">
-        <v>2539.064141668989</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N11" t="n">
-        <v>3515.31520015569</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O11" t="n">
-        <v>4360.459850306502</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P11" t="n">
-        <v>4360.459850306502</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q11" t="n">
-        <v>4360.459850306502</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R11" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>4256.092556179642</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>4035.166985224275</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.812075820688</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V11" t="n">
-        <v>3776.812075820688</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="W11" t="n">
-        <v>3429.748365050016</v>
+        <v>3380.420726121033</v>
       </c>
       <c r="X11" t="n">
-        <v>3018.028366217763</v>
+        <v>2968.70072728878</v>
       </c>
       <c r="Y11" t="n">
-        <v>2612.691096172653</v>
+        <v>2563.363457243671</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
         <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>140.5852902438205</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K12" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L12" t="n">
-        <v>87.20919700613004</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="M12" t="n">
-        <v>1143.195734982175</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="N12" t="n">
-        <v>1143.195734982175</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="O12" t="n">
-        <v>1895.89682758664</v>
+        <v>924.0080050890361</v>
       </c>
       <c r="P12" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q12" t="n">
         <v>1895.89682758664</v>
@@ -5162,10 +5162,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C13" t="n">
-        <v>998.4177564092829</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D13" t="n">
-        <v>835.1009835360536</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E13" t="n">
-        <v>668.8927776889071</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
-        <v>497.0310034634676</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>330.7740337576997</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>186.9777652658541</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
-        <v>144.7005252302881</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>371.2281264361253</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
         <v>725.917447730546</v>
@@ -5223,28 +5223,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2220.583611106431</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T13" t="n">
-        <v>2220.583611106431</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U13" t="n">
-        <v>2220.583611106431</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V13" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W13" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X13" t="n">
-        <v>1586.899056552691</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y13" t="n">
-        <v>1360.556288242433</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2525.607981663617</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C14" t="n">
-        <v>2098.707251676917</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D14" t="n">
-        <v>1675.414630861917</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E14" t="n">
-        <v>1249.437691009775</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F14" t="n">
-        <v>824.3135091991753</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G14" t="n">
-        <v>419.974446788624</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H14" t="n">
-        <v>122.1060682626588</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I14" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>87.20919700613004</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K14" t="n">
-        <v>605.1529926306538</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>1534.77804024993</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M14" t="n">
-        <v>2539.064141668989</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N14" t="n">
-        <v>3515.31520015569</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O14" t="n">
-        <v>4360.459850306502</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P14" t="n">
-        <v>4360.459850306502</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q14" t="n">
-        <v>4360.459850306502</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R14" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>4256.092556179642</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4035.166985224275</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>3776.812075820688</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="V14" t="n">
-        <v>3776.812075820688</v>
+        <v>3677.677570350523</v>
       </c>
       <c r="W14" t="n">
-        <v>3762.51361483251</v>
+        <v>3677.677570350523</v>
       </c>
       <c r="X14" t="n">
-        <v>3350.793616000257</v>
+        <v>3265.95757151827</v>
       </c>
       <c r="Y14" t="n">
-        <v>2945.456345955147</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
         <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>140.5852902438205</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>87.20919700613004</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20919700613004</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K15" t="n">
-        <v>87.20919700613004</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="L15" t="n">
-        <v>87.20919700613004</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="M15" t="n">
-        <v>1143.195734982175</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="N15" t="n">
-        <v>1143.195734982175</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.89682758664</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P15" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q15" t="n">
         <v>1895.89682758664</v>
@@ -5399,10 +5399,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C16" t="n">
-        <v>998.4177564092829</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D16" t="n">
-        <v>835.1009835360536</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E16" t="n">
-        <v>668.8927776889071</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F16" t="n">
-        <v>497.0310034634676</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>330.7740337576997</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>186.9777652658541</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
-        <v>144.7005252302881</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>371.2281264361253</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
         <v>725.917447730546</v>
@@ -5463,25 +5463,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.622224419258</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.622224419258</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V16" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W16" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X16" t="n">
-        <v>1586.899056552691</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.556288242433</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,19 +5503,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,28 +5524,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5703,22 +5703,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1550.684777446425</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.832373618938</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.832373618938</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1275.832373618938</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402535</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281451</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408221</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291426</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291426</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>4951.828802806541</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.412502424859</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,19 +5977,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
         <v>1180.414480198223</v>
@@ -5998,28 +5998,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2988.069926596601</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,22 +6068,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q26" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6296,7 +6296,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
         <v>102.3027134058285</v>
@@ -6308,22 +6308,22 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>778.6022263052664</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2274.423179600939</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1994.238731101243</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.527263709272</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.674859881785</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1195.11096332759</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>968.7681950173321</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,19 +6451,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6475,25 +6475,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6542,22 +6542,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L30" t="n">
-        <v>964.4851292537592</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M30" t="n">
-        <v>964.4851292537592</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N30" t="n">
-        <v>964.4851292537592</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>964.4851292537592</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
         <v>1446.844867123559</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3959.47027938737</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6782,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>939.1015214887346</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O33" t="n">
-        <v>939.1015214887346</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P33" t="n">
-        <v>1655.299238527233</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6888,22 +6888,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>2002.531292319261</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1727.678888491774</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>1485.114991937579</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3105.626261478503</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478503</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7016,22 +7016,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>730.647150085061</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>730.647150085061</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
         <v>1446.844867123559</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7125,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1485.114991937579</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7186,25 +7186,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
         <v>1446.844867123559</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2369.673452564206</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C41" t="n">
-        <v>1942.772722577506</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D41" t="n">
-        <v>1519.480101762506</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E41" t="n">
-        <v>1093.503161910364</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F41" t="n">
-        <v>668.378980099764</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G41" t="n">
-        <v>264.0399176892126</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H41" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I41" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>449.8126558230256</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
         <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>1165.320963798525</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>2169.607065217583</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N41" t="n">
-        <v>3145.858123704284</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="O41" t="n">
-        <v>3145.858123704284</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="P41" t="n">
-        <v>3854.137402862212</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q41" t="n">
-        <v>4310.222882366395</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R41" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T41" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U41" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="V41" t="n">
-        <v>4002.970435432751</v>
+        <v>4124.008093275634</v>
       </c>
       <c r="W41" t="n">
-        <v>3606.579085733099</v>
+        <v>3727.61674357598</v>
       </c>
       <c r="X41" t="n">
-        <v>3194.859086900846</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="Y41" t="n">
-        <v>2789.521816855736</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3118.895710757447</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>3001.389807274952</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>2897.549848790237</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>2792.847915063175</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>2699.202084746079</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>2605.148312963683</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>2551.772219725993</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>2551.772219725993</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>2823.469709005584</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>3413.954635573923</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L42" t="n">
-        <v>3413.954635573923</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>3413.954635573923</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N42" t="n">
-        <v>3413.954635573923</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="O42" t="n">
-        <v>3413.954635573923</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="P42" t="n">
-        <v>3814.29506335902</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="Q42" t="n">
-        <v>4278.440540221799</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R42" t="n">
-        <v>4360.459850306502</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>4279.135602867756</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>4137.255667165435</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>3952.487471085071</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>3747.514332224338</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>3550.992955057555</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>3387.515608824218</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>3247.82272017751</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C43" t="n">
-        <v>998.4177564092829</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D43" t="n">
-        <v>835.1009835360536</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E43" t="n">
-        <v>668.8927776889071</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
-        <v>497.0310034634676</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>330.7740337576997</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>186.9777652658541</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>144.7005252302881</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>371.2281264361253</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
         <v>725.917447730546</v>
@@ -7596,25 +7596,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.282876645158</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U43" t="n">
-        <v>1744.098428145462</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V43" t="n">
-        <v>1744.098428145462</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W43" t="n">
-        <v>1744.098428145462</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.534531591268</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y43" t="n">
-        <v>1360.556288242433</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.607981663617</v>
+        <v>2286.784321904902</v>
       </c>
       <c r="C44" t="n">
-        <v>2098.707251676917</v>
+        <v>1859.883591918202</v>
       </c>
       <c r="D44" t="n">
-        <v>1675.414630861917</v>
+        <v>1436.590971103202</v>
       </c>
       <c r="E44" t="n">
-        <v>1249.437691009775</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F44" t="n">
-        <v>824.3135091991753</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>419.974446788624</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H44" t="n">
-        <v>122.1060682626588</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>449.8126558230256</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
         <v>1165.320963798525</v>
@@ -7660,40 +7660,40 @@
         <v>2094.946011417801</v>
       </c>
       <c r="N44" t="n">
-        <v>2233.394106611676</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O44" t="n">
-        <v>3078.538756762488</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P44" t="n">
-        <v>3786.818035920416</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q44" t="n">
-        <v>4242.903515424599</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
-        <v>4360.459850306502</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>4256.092556179642</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T44" t="n">
-        <v>4035.166985224275</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U44" t="n">
-        <v>3776.812075820688</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V44" t="n">
-        <v>3419.322660946938</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W44" t="n">
-        <v>3419.322660946938</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="X44" t="n">
-        <v>3350.793616000257</v>
+        <v>3111.969956241542</v>
       </c>
       <c r="Y44" t="n">
-        <v>2945.456345955147</v>
+        <v>2706.632686196432</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>654.3326880375853</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>536.8267845550901</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>432.9868260703751</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>328.2848923433123</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
         <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>140.5852902438205</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>358.9066862857211</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>949.3916128540607</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L45" t="n">
-        <v>949.3916128540607</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M45" t="n">
-        <v>949.3916128540607</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N45" t="n">
-        <v>949.3916128540607</v>
+        <v>87.20919700613</v>
       </c>
       <c r="O45" t="n">
-        <v>949.3916128540607</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P45" t="n">
         <v>1431.75135072386</v>
@@ -7769,10 +7769,10 @@
         <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>922.9525861043556</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>783.259697457648</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7794,22 +7794,22 @@
         <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G46" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H46" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
-        <v>87.20919700613004</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
-        <v>144.7005252302881</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>371.2281264361253</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
         <v>725.917447730546</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>181.4456529820158</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.324593627922</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646222</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>374.7836996295484</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
         <v>977.3272420480539</v>
@@ -8464,19 +8464,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>194.4847929290473</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8537,10 +8537,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>383.3462223301476</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>638.6651646102807</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>558.940151930692</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>177.126183636338</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>534.642907502631</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>558.940151930692</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>177.126183636338</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>783.4760236661258</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>58.21512474482097</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>924.3306556055946</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9716,25 +9716,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>977.4089016807933</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R26" t="n">
-        <v>129.135014084331</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>474.5964003263119</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10123,7 +10123,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10190,10 +10190,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,13 +10202,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P32" t="n">
-        <v>625.4779643536363</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>270.5370846943451</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>281.0208821870649</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.074428213577</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10664,25 +10664,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1105.024507443985</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10834,7 +10834,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406089</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,13 +10913,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1105.024507443985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11065,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>732.1065972481656</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>85.77706195551082</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>426.1551116948251</v>
+        <v>699.2271871843858</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11308,7 +11308,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>177.1261836363399</v>
+        <v>177.126183636338</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>134.3095730572796</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.6064085940736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181037</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29091348988624</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>348.925310093345</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22843,13 +22843,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>17.45867505536722</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22953,7 +22953,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283286</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.2719598243617</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>297.3429062189633</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>230.8771782067047</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>343.7240572803983</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23320,7 +23320,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>48.83436253969126</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>378.2719598243601</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>49.4397814932031</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.81925671296121</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>59.64236734312284</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6963186905213</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.93792262753476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>119.8272812644537</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25687,7 +25687,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>119.8272812644554</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.51087971180883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>201.8875206171646</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>339.7590443467163</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>68.10191868181126</v>
+        <v>68.1019186818112</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449702.5758019649</v>
+        <v>449702.5758019651</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449702.5758019649</v>
+        <v>449702.575801965</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668645.4224553339</v>
+        <v>668645.4224553338</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668645.4224553339</v>
+        <v>668645.4224553338</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668645.4224553339</v>
+        <v>668645.4224553336</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746017.0507548572</v>
+        <v>746017.0507548571</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746017.0507548572</v>
+        <v>746017.0507548571</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>746017.0507548572</v>
+        <v>746017.0507548571</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668645.4224553338</v>
+        <v>668645.4224553336</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>668645.4224553339</v>
+        <v>668645.4224553336</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>186353.4106584144</v>
       </c>
       <c r="C2" t="n">
-        <v>186353.4106584143</v>
+        <v>186353.4106584144</v>
       </c>
       <c r="D2" t="n">
         <v>277061.5976071444</v>
       </c>
       <c r="E2" t="n">
-        <v>277061.5976071444</v>
+        <v>277061.5976071443</v>
       </c>
       <c r="F2" t="n">
-        <v>277061.5976071444</v>
+        <v>277061.5976071443</v>
       </c>
       <c r="G2" t="n">
-        <v>309116.7217255958</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="H2" t="n">
         <v>309116.7217255959</v>
@@ -26337,7 +26337,7 @@
         <v>309116.7217255959</v>
       </c>
       <c r="J2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="K2" t="n">
         <v>309116.7217255959</v>
@@ -26349,13 +26349,13 @@
         <v>309116.721725596</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.721725596</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="O2" t="n">
         <v>277061.5976071443</v>
       </c>
       <c r="P2" t="n">
-        <v>277061.5976071444</v>
+        <v>277061.5976071443</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>165841.3652370802</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>51711.33053014202</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348164</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>135122.0325442418</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="C4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="D4" t="n">
-        <v>64858.25346428686</v>
+        <v>64858.25346428683</v>
       </c>
       <c r="E4" t="n">
-        <v>64858.25346428687</v>
+        <v>64858.25346428684</v>
       </c>
       <c r="F4" t="n">
-        <v>64858.25346428687</v>
+        <v>64858.25346428684</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="K4" t="n">
-        <v>72380.6272498637</v>
-      </c>
-      <c r="L4" t="n">
-        <v>72380.6272498637</v>
-      </c>
       <c r="M4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="O4" t="n">
-        <v>64858.25346428687</v>
+        <v>64858.25346428685</v>
       </c>
       <c r="P4" t="n">
-        <v>64858.25346428685</v>
+        <v>64858.25346428683</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>99906.58972465881</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>66278.98972465882</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>66278.98972465882</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>66278.98972465882</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>66278.98972465882</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111069.3432276246</v>
+        <v>-111678.3889401144</v>
       </c>
       <c r="C6" t="n">
-        <v>75335.39018711248</v>
+        <v>74726.34447462292</v>
       </c>
       <c r="D6" t="n">
-        <v>-53544.61081888143</v>
+        <v>-53741.34659069484</v>
       </c>
       <c r="E6" t="n">
-        <v>145924.3544181988</v>
+        <v>145727.618646385</v>
       </c>
       <c r="F6" t="n">
-        <v>145924.3544181987</v>
+        <v>145727.618646385</v>
       </c>
       <c r="G6" t="n">
-        <v>107274.7017571605</v>
+        <v>107223.671094976</v>
       </c>
       <c r="H6" t="n">
-        <v>158986.0322873026</v>
+        <v>158935.0016251183</v>
       </c>
       <c r="I6" t="n">
-        <v>158986.0322873026</v>
+        <v>158935.0016251183</v>
       </c>
       <c r="J6" t="n">
-        <v>13452.36235248623</v>
+        <v>13401.33169030173</v>
       </c>
       <c r="K6" t="n">
-        <v>158986.0322873026</v>
+        <v>158935.0016251183</v>
       </c>
       <c r="L6" t="n">
-        <v>23863.99974306079</v>
+        <v>23812.96908087662</v>
       </c>
       <c r="M6" t="n">
-        <v>158986.0322873026</v>
+        <v>158935.0016251183</v>
       </c>
       <c r="N6" t="n">
-        <v>158986.0322873026</v>
+        <v>158935.0016251182</v>
       </c>
       <c r="O6" t="n">
-        <v>145924.3544181986</v>
+        <v>145727.6186463851</v>
       </c>
       <c r="P6" t="n">
-        <v>145924.3544181987</v>
+        <v>145727.618646385</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>1090.114962576625</v>
@@ -26813,7 +26813,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>533.8871494610314</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.6689549962312</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610312</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>533.8871494610314</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>188.6689549962312</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597935</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>345.3637401439619</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
         <v>939.015199615431</v>
@@ -35184,19 +35184,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>156.909431118816</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>616.894323405452</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>523.1755511358826</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>139.846560801892</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>523.1755511358826</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>139.846560801892</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>760.3041339439036</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>886.8993927061629</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R26" t="n">
-        <v>94.1023641895345</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>452.1971664929786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P32" t="n">
-        <v>587.902602543405</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>249.1940564808034</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.2738438980864</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.643165314145</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1083.681479230444</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061629</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1083.681479230444</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37785,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>694.5312354379342</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>50.74441206071435</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>404.3842704899964</v>
+        <v>677.4563459795571</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>139.8465608018938</v>
+        <v>139.846560801892</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
